--- a/points.xlsx
+++ b/points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucliveac-my.sharepoint.com/personal/dmc284_uclive_ac_nz/Documents/2025/ENMT482/Assignment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{6E1EF13E-EF91-497D-9452-7E18C2F07B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2058C4AC-F6E4-4897-AEAC-1F5DB1DEFBCC}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{6E1EF13E-EF91-497D-9452-7E18C2F07B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B4DF5B4-5AFF-4EB5-8095-8018396242E2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{E8225CB9-45CE-4437-8AC0-83402CB2D7CC}"/>
   </bookViews>
@@ -4059,7 +4059,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5448,7 +5448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5765,6 +5765,7 @@
     <filterColumn colId="3">
       <filters>
         <filter val="mazzer"/>
+        <filter val="rancilio_tool"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/points.xlsx
+++ b/points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucliveac-my.sharepoint.com/personal/dmc284_uclive_ac_nz/Documents/2025/ENMT482/Assignment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{6E1EF13E-EF91-497D-9452-7E18C2F07B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B4DF5B4-5AFF-4EB5-8095-8018396242E2}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{6E1EF13E-EF91-497D-9452-7E18C2F07B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED85F7A4-D1EA-4F0A-B36D-2F52624B31CB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{E8225CB9-45CE-4437-8AC0-83402CB2D7CC}"/>
   </bookViews>
@@ -4053,13 +4053,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F0920-56E9-448C-99FF-774F148827CD}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5761,14 +5761,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H65" xr:uid="{4C0F0920-56E9-448C-99FF-774F148827CD}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="mazzer"/>
-        <filter val="rancilio_tool"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H65" xr:uid="{4C0F0920-56E9-448C-99FF-774F148827CD}"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B70 B2:B66" xr:uid="{6F6B1E5E-7CBA-43D9-9BF5-099D63C6B41C}">
       <formula1>"local, world"</formula1>
